--- a/statistics/oclc_4770057679-stats_tei.xlsx
+++ b/statistics/oclc_4770057679-stats_tei.xlsx
@@ -1067,19 +1067,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B153" workbookViewId="0">
-      <selection activeCell="K195" sqref="K195"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
     <col min="8" max="8" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
     <col min="11" max="11" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
